--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BiomedEKG\BiomedEKG\ecg_holter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dadm\ecg_holter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
   <si>
     <t>Software architect</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>Ile czasu poświęcono</t>
+  </si>
+  <si>
+    <t>Diagramy klas, ogarnięcie pojawiajacych się problemów z postawieniem projektu, opieprzanie Pauliny za inicjatywę godną rzodkiewki.</t>
+  </si>
+  <si>
+    <t>postawiłem projekt!</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>3/4dni</t>
   </si>
 </sst>
 </file>
@@ -843,7 +855,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,8 +863,8 @@
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="71" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -912,10 +924,18 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dadm\ecg_holter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Software architect</t>
   </si>
@@ -324,13 +319,16 @@
   </si>
   <si>
     <t>3/4dni</t>
+  </si>
+  <si>
+    <t>Jak niżej:) Podpięcie gsl i fftw do środowiska, napisanie instrukcji. Ogarnięcie podziału zadań w module i doproszenie się informacji od Kuby :P 5 dni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,7 +630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +665,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -844,21 +842,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
@@ -870,7 +868,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -880,7 +878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>85</v>
       </c>
@@ -901,7 +899,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,12 +909,14 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -965,7 +965,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -993,7 +993,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.75">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
@@ -1021,7 +1021,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>23</v>
@@ -1049,7 +1049,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
         <v>28</v>
@@ -1077,7 +1077,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
@@ -1105,7 +1105,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>35</v>
@@ -1133,7 +1133,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -1161,7 +1161,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
         <v>46</v>
@@ -1189,7 +1189,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A24" s="5"/>
       <c r="B24" s="11" t="s">
         <v>51</v>
@@ -1217,7 +1217,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="5"/>
       <c r="B26" s="11" t="s">
         <v>56</v>
@@ -1245,7 +1245,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
       <c r="A28" s="5"/>
       <c r="B28" s="11" t="s">
         <v>61</v>
@@ -1273,7 +1273,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>3</v>
@@ -1301,7 +1301,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="5"/>
       <c r="B32" s="11" t="s">
         <v>88</v>
@@ -1329,7 +1329,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>71</v>
@@ -1357,7 +1357,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="21" customHeight="1" thickBot="1">
       <c r="A36" s="5"/>
       <c r="B36" s="11" t="s">
         <v>46</v>
@@ -1385,7 +1385,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="5"/>
       <c r="B38" s="11" t="s">
         <v>79</v>
@@ -1413,7 +1413,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>81</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
         <v>82</v>

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -321,7 +321,7 @@
     <t>3/4dni</t>
   </si>
   <si>
-    <t>Jak niżej:) Podpięcie gsl i fftw do środowiska, napisanie instrukcji. Ogarnięcie podziału zadań w module i doproszenie się informacji od Kuby :P 5 dni</t>
+    <t>Jak niżej:) Podpiecie gsl i fftw do środowiska, napisanie instrukcji. Ogarnięcie podziału zadań w module i doproszenie się informacji od Kuby :P 5 dni</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Software architect</t>
   </si>
@@ -321,7 +321,10 @@
     <t>3/4dni</t>
   </si>
   <si>
-    <t>Jak niżej:) Podpiecie gsl i fftw do środowiska, napisanie instrukcji. Ogarnięcie podziału zadań w module i doproszenie się informacji od Kuby :P 5 dni</t>
+    <t xml:space="preserve">Jak niżej:)  Ogarnięcie podziału zadań w module i doproszenie się informacji od Kuby :P </t>
+  </si>
+  <si>
+    <t>2 dni</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -853,7 +856,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,7 +915,9 @@
       <c r="D3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145"/>
@@ -10,8 +10,8 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Software architect</t>
   </si>
@@ -325,13 +325,16 @@
   </si>
   <si>
     <t>2 dni</t>
+  </si>
+  <si>
+    <t>Określenie zadania modułu, próba definicji danych I/O, przegląd podobnych rozwiązań.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,14 +855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
@@ -871,7 +874,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -881,7 +884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>85</v>
       </c>
@@ -902,7 +905,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -921,7 +924,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -942,7 +945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -970,7 +973,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -985,7 +988,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -998,7 +1001,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="57.75">
+    <row r="9" spans="1:7" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
@@ -1026,7 +1029,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>23</v>
@@ -1054,7 +1057,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
         <v>28</v>
@@ -1082,7 +1085,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
@@ -1110,7 +1113,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>35</v>
@@ -1138,7 +1141,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1153,7 +1156,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -1166,7 +1169,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
         <v>46</v>
@@ -1194,7 +1197,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1209,7 +1212,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="11" t="s">
         <v>51</v>
@@ -1222,7 +1225,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1237,7 +1240,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="11" t="s">
         <v>56</v>
@@ -1250,7 +1253,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1">
+    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -1265,7 +1268,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="11" t="s">
         <v>61</v>
@@ -1278,7 +1281,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="20.25" customHeight="1">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -1293,7 +1296,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>3</v>
@@ -1306,7 +1309,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="11" t="s">
         <v>88</v>
@@ -1334,7 +1337,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -1349,7 +1352,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>71</v>
@@ -1357,12 +1360,14 @@
       <c r="C34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="E34" s="17"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1377,7 +1382,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="11" t="s">
         <v>46</v>
@@ -1390,7 +1395,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1405,7 +1410,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="11" t="s">
         <v>79</v>
@@ -1418,7 +1423,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>81</v>
       </c>
@@ -1433,7 +1438,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
         <v>82</v>

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>Software architect</t>
   </si>
@@ -327,7 +327,10 @@
     <t>2 dni</t>
   </si>
   <si>
-    <t>Określenie zadania modułu, próba definicji danych I/O, przegląd podobnych rozwiązań.</t>
+    <t>Określenie zadania modułu, próba definicji danych I/O, przegląd podobnych rozwiązań</t>
+  </si>
+  <si>
+    <t>2-3 dni</t>
   </si>
 </sst>
 </file>
@@ -858,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1366,9 @@
       <c r="D34" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Software architect</t>
   </si>
@@ -331,13 +331,16 @@
   </si>
   <si>
     <t>2-3 dni</t>
+  </si>
+  <si>
+    <t>Przegląd literatury oraz istniejących rozwiązań, próba wybrania jednej metody klasyfikacji QRS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,21 +854,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
@@ -877,7 +880,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -887,7 +890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>85</v>
       </c>
@@ -908,7 +911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,7 +930,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -948,7 +951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -963,7 +966,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -976,7 +979,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -991,7 +994,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -1004,7 +1007,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.75">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1022,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
@@ -1032,7 +1035,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1050,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>23</v>
@@ -1060,7 +1063,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1078,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
         <v>28</v>
@@ -1088,7 +1091,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1106,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
@@ -1116,7 +1119,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1131,7 +1134,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>35</v>
@@ -1144,7 +1147,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1162,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -1172,7 +1175,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1187,7 +1190,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
         <v>46</v>
@@ -1200,7 +1203,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1218,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A24" s="5"/>
       <c r="B24" s="11" t="s">
         <v>51</v>
@@ -1228,7 +1231,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1238,12 +1241,14 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E25" s="15"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="5"/>
       <c r="B26" s="11" t="s">
         <v>56</v>
@@ -1256,7 +1261,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -1271,7 +1276,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
       <c r="A28" s="5"/>
       <c r="B28" s="11" t="s">
         <v>61</v>
@@ -1284,7 +1289,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -1299,7 +1304,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>3</v>
@@ -1312,7 +1317,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1327,7 +1332,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="5"/>
       <c r="B32" s="11" t="s">
         <v>88</v>
@@ -1340,7 +1345,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -1355,7 +1360,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>71</v>
@@ -1372,7 +1377,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1387,7 +1392,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="21" customHeight="1" thickBot="1">
       <c r="A36" s="5"/>
       <c r="B36" s="11" t="s">
         <v>46</v>
@@ -1400,7 +1405,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1415,7 +1420,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="5"/>
       <c r="B38" s="11" t="s">
         <v>79</v>
@@ -1428,7 +1433,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>81</v>
       </c>
@@ -1443,7 +1448,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
         <v>82</v>

--- a/Sprint_1.xlsx
+++ b/Sprint_1.xlsx
@@ -333,7 +333,7 @@
     <t>2-3 dni</t>
   </si>
   <si>
-    <t>Przegląd literatury oraz istniejących rozwiązań, próba wybrania jednej metody klasyfikacji QRS.</t>
+    <t>Przegląd literatury oraz istniejących rozwiązań, próba wybrania jednej metody klasyfikacji QRS. Przygotowanie prezentacji na spotkanie kontrole #1</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -873,7 +873,7 @@
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="134.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="71" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
